--- a/biology/Histoire de la zoologie et de la botanique/Michel_Jurdant/Michel_Jurdant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michel_Jurdant/Michel_Jurdant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Jurdant (né vers 1933 à Grivegnée[1], mort le 6 novembre 1984[2]) est un écologue et écologiste québécois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Jurdant (né vers 1933 à Grivegnée, mort le 6 novembre 1984) est un écologue et écologiste québécois.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient une maîtrise en écologie à l'Université Laval et un doctorat à l'Université Cornell pour des recherches en écologie-pédologie[1].
-Il travaille 22 ans à Environnement Canada comme ingénieur forestier[3].
-Il est connu pour les méthodes de cartographie et d'inventaire des ressources écologiques du territoire du Saguenay–Lac-Saint-Jean. Il a dressé la cartographie écologique du territoire de la baie James[1].
-Il a été professeur en foresterie à l'Université Laval au début des années 1980[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient une maîtrise en écologie à l'Université Laval et un doctorat à l'Université Cornell pour des recherches en écologie-pédologie.
+Il travaille 22 ans à Environnement Canada comme ingénieur forestier.
+Il est connu pour les méthodes de cartographie et d'inventaire des ressources écologiques du territoire du Saguenay–Lac-Saint-Jean. Il a dressé la cartographie écologique du territoire de la baie James.
+Il a été professeur en foresterie à l'Université Laval au début des années 1980.
 </t>
         </is>
       </c>
